--- a/datasets/satelliteData/satHsvFinal4_1000ft.xlsx
+++ b/datasets/satelliteData/satHsvFinal4_1000ft.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t xml:space="preserve">sat_label</t>
   </si>
@@ -234,163 +234,184 @@
     <t xml:space="preserve">Princeton</t>
   </si>
   <si>
+    <t xml:space="preserve">gray35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivory4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golfHopewell1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/golfHopewell1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hopewell Golf course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golfPrinceton1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/golfPrinceton1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princeton golf course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preserveMtLakes1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/preserveMtLakes1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billie Johnson Mountain Lakes Nature Preserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preserveMtRose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/preserveMtRose.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mt Rose Preserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">darkolivegreen4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preserveStonyOctagon1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/preserveStonyOctagon1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stony Ford Research Station; Octogon; Preserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schHopeElem1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/schHopeElem1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hopewell Elemenary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightsteelblue4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schHopeHS_TimberMS1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/schHopeHS_TimberMS1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hopewell Central HS + Timberlane MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schTollGram1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/schTollGram1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toll Gate Grammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray12</t>
+  </si>
+  <si>
     <t xml:space="preserve">gray47</t>
   </si>
   <si>
+    <t xml:space="preserve">univArtMuseum1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/univArtMuseum1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art Museum; Princton Univ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">univ</t>
+  </si>
+  <si>
     <t xml:space="preserve">gray32</t>
   </si>
   <si>
+    <t xml:space="preserve">univForestSwTrack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/univForestSwTrack.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest; SW Track and Jadwin Gym; Princeton Univ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">univGuyotHall1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/univGuyotHall1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyot Hall; Princeton Univ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightyellow4</t>
+  </si>
+  <si>
     <t xml:space="preserve">gray60</t>
   </si>
   <si>
-    <t xml:space="preserve">golfHopewell1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/golfHopewell1000.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hopewell Golf course</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golfPrinceton1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/golfPrinceton1000.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Princeton golf course</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preserveMtLakes1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/preserveMtLakes1000.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billie Johnson Mountain Lakes Nature Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preserveMtRose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/preserveMtRose.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mt Rose Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">darkolivegreen4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schHopeElem1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/schHopeElem1000.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hopewell Elemenary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightsteelblue4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schHopeHS_TimberMS1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/schHopeHS_TimberMS1000.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hopewell Central HS + Timberlane MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schTollGram1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/schTollGram1000.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toll Gate Grammer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">univArtMuseum1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/univArtMuseum1000.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Art Museum; Princton Univ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">univ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">univForestSwTrack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/univForestSwTrack.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest; SW Track and Jadwin Gym; Princeton Univ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ivory4</t>
+    <t xml:space="preserve">gray21</t>
   </si>
   <si>
     <t xml:space="preserve">univSolarFarm</t>
@@ -966,52 +987,52 @@
         <v>0.152010994674507</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.273571510037749</v>
+        <v>0.273583737895105</v>
       </c>
       <c r="R2" t="n">
-        <v>0.393923433751375</v>
+        <v>0.393950972299106</v>
       </c>
       <c r="S2" t="n">
-        <v>0.168297937886108</v>
+        <v>0.168299839563669</v>
       </c>
       <c r="T2" t="n">
-        <v>0.663754659987384</v>
+        <v>0.66378837658881</v>
       </c>
       <c r="U2" t="n">
-        <v>0.441040241021633</v>
+        <v>0.441035890918189</v>
       </c>
       <c r="V2" t="n">
-        <v>0.422754631348466</v>
+        <v>0.42275262810762</v>
       </c>
       <c r="W2" t="n">
-        <v>0.21295454509663</v>
+        <v>0.212963816501007</v>
       </c>
       <c r="X2" t="n">
-        <v>0.15175948878158</v>
+        <v>0.151712187877889</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.421431611925098</v>
+        <v>0.421396727232995</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.194895246509571</v>
+        <v>0.194863752338239</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.533790891556834</v>
+        <v>0.533792055845746</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.330953948489371</v>
+        <v>0.331023753033897</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.465165915984925</v>
+        <v>0.465278058645096</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.393635444434231</v>
+        <v>0.393525140178325</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.114753194227411</v>
+        <v>0.114760547844471</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0264454453534332</v>
+        <v>0.0264362533321077</v>
       </c>
       <c r="AG2" t="s">
         <v>40</v>
@@ -1076,52 +1097,52 @@
         <v>0.147324379382068</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.340585620373198</v>
+        <v>0.340043173001126</v>
       </c>
       <c r="R3" t="n">
-        <v>0.268670117198035</v>
+        <v>0.26861033140328</v>
       </c>
       <c r="S3" t="n">
-        <v>0.162680703927568</v>
+        <v>0.16267344165849</v>
       </c>
       <c r="T3" t="n">
-        <v>0.709970857014919</v>
+        <v>0.708266067680774</v>
       </c>
       <c r="U3" t="n">
-        <v>0.400630386247348</v>
+        <v>0.400759103417073</v>
       </c>
       <c r="V3" t="n">
-        <v>0.469341294018801</v>
+        <v>0.469370909440565</v>
       </c>
       <c r="W3" t="n">
-        <v>0.25395190031428</v>
+        <v>0.253917394275247</v>
       </c>
       <c r="X3" t="n">
-        <v>0.228430800588074</v>
+        <v>0.230561384885096</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.189683371956365</v>
+        <v>0.190041684611937</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.39852806037521</v>
+        <v>0.398781554589736</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.481119710150025</v>
+        <v>0.4811805223434</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.255033331480344</v>
+        <v>0.25291507639002</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.419194778931887</v>
+        <v>0.419321628826179</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.407447375677912</v>
+        <v>0.406598032907436</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.116942733707142</v>
+        <v>0.11690228881331</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0564151116830591</v>
+        <v>0.0571780494530747</v>
       </c>
       <c r="AG3" t="s">
         <v>47</v>
@@ -1186,52 +1207,52 @@
         <v>0.124575208210256</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.269110442290749</v>
+        <v>0.269142003520267</v>
       </c>
       <c r="R4" t="n">
-        <v>0.349663054577097</v>
+        <v>0.349931773382661</v>
       </c>
       <c r="S4" t="n">
-        <v>0.219663043399733</v>
+        <v>0.219612418644118</v>
       </c>
       <c r="T4" t="n">
-        <v>0.53842420411782</v>
+        <v>0.539815729181687</v>
       </c>
       <c r="U4" t="n">
-        <v>0.49621789511727</v>
+        <v>0.496198325371254</v>
       </c>
       <c r="V4" t="n">
-        <v>0.458596738274436</v>
+        <v>0.458741117685476</v>
       </c>
       <c r="W4" t="n">
-        <v>0.290917456638121</v>
+        <v>0.290959577648733</v>
       </c>
       <c r="X4" t="n">
-        <v>0.408298413670028</v>
+        <v>0.406439800739569</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.437842800919016</v>
+        <v>0.437767287040943</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.239359782947639</v>
+        <v>0.238905102323143</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.467231643925261</v>
+        <v>0.467193069163766</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.138234293377105</v>
+        <v>0.138955055242208</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.533736556668811</v>
+        <v>0.534152036032724</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.306695468333487</v>
+        <v>0.306962036951926</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.110940343781598</v>
+        <v>0.110934828568802</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0486276312161044</v>
+        <v>0.0479510984465484</v>
       </c>
       <c r="AG4" t="s">
         <v>40</v>
@@ -1296,52 +1317,52 @@
         <v>0.151307451278683</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.274127026871889</v>
+        <v>0.274122902615614</v>
       </c>
       <c r="R5" t="n">
-        <v>0.380623837083432</v>
+        <v>0.38057154655442</v>
       </c>
       <c r="S5" t="n">
-        <v>0.158508309872703</v>
+        <v>0.158513472126041</v>
       </c>
       <c r="T5" t="n">
-        <v>0.796531306095702</v>
+        <v>0.796275510306232</v>
       </c>
       <c r="U5" t="n">
-        <v>0.480723080020152</v>
+        <v>0.480704227987034</v>
       </c>
       <c r="V5" t="n">
-        <v>0.391805887532378</v>
+        <v>0.391877103611394</v>
       </c>
       <c r="W5" t="n">
-        <v>0.245917796872975</v>
+        <v>0.245901541602121</v>
       </c>
       <c r="X5" t="n">
-        <v>0.115189742242762</v>
+        <v>0.115283595285406</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.375619638919955</v>
+        <v>0.375650034991203</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.174117364122529</v>
+        <v>0.17411632902896</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.510231556667733</v>
+        <v>0.510220758169917</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.46906448710872</v>
+        <v>0.468566718722895</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.451679382296167</v>
+        <v>0.451629745381009</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.402595826822318</v>
+        <v>0.402581119588197</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.103412078316022</v>
+        <v>0.103410239911757</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0423127125654932</v>
+        <v>0.0423788951190367</v>
       </c>
       <c r="AG5" t="s">
         <v>40</v>
@@ -1406,10 +1427,10 @@
         <v>0.125021481311787</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.388738064566357</v>
+        <v>0.38875214222588</v>
       </c>
       <c r="R6" t="n">
-        <v>0.254684351309795</v>
+        <v>0.254714918654253</v>
       </c>
       <c r="S6" t="n">
         <v>0.528667242954064</v>
@@ -1418,10 +1439,10 @@
         <v>0.687232981656784</v>
       </c>
       <c r="U6" t="n">
-        <v>0.308671258692098</v>
+        <v>0.308664346580309</v>
       </c>
       <c r="V6" t="n">
-        <v>0.278825293369977</v>
+        <v>0.278852649261944</v>
       </c>
       <c r="W6" t="n">
         <v>0.417845628789337</v>
@@ -1430,10 +1451,10 @@
         <v>0.103640442020803</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.333112691957237</v>
+        <v>0.333091288121562</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.505863481388159</v>
+        <v>0.505830763597149</v>
       </c>
       <c r="AA6" t="n">
         <v>0.215749398495713</v>
@@ -1442,10 +1463,10 @@
         <v>0.527620680364344</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.492639029322548</v>
+        <v>0.492532401875172</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.240676532769556</v>
+        <v>0.240783160216932</v>
       </c>
       <c r="AE6" t="n">
         <v>0.200325397554922</v>
@@ -1516,52 +1537,52 @@
         <v>0.150017310714596</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.262123850355902</v>
+        <v>0.435715173385725</v>
       </c>
       <c r="R7" t="n">
-        <v>0.513407644081302</v>
+        <v>0.721989039581978</v>
       </c>
       <c r="S7" t="n">
-        <v>0.721157321169748</v>
+        <v>0.208564261992821</v>
       </c>
       <c r="T7" t="n">
-        <v>0.554570939093632</v>
+        <v>0.592332941687389</v>
       </c>
       <c r="U7" t="n">
-        <v>0.170252825137796</v>
+        <v>0.232533846913019</v>
       </c>
       <c r="V7" t="n">
-        <v>0.217317429146254</v>
+        <v>0.0768310413825274</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0740423936070665</v>
+        <v>0.115524527409094</v>
       </c>
       <c r="X7" t="n">
-        <v>0.404173352224294</v>
+        <v>0.404560126901653</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.519814398500252</v>
+        <v>0.389666187647276</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.352595844508065</v>
+        <v>0.619923347838479</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.627141000666229</v>
+        <v>0.569547540751956</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.296619474876033</v>
+        <v>0.28177930915141</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.325035389282103</v>
+        <v>0.415164996782793</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.268747127493336</v>
+        <v>0.264516959279346</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.256137512639029</v>
+        <v>0.183665778104605</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.150079970585532</v>
+        <v>0.136652265833257</v>
       </c>
       <c r="AG7" t="s">
         <v>73</v>
@@ -1573,7 +1594,7 @@
         <v>75</v>
       </c>
       <c r="AJ7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -1626,75 +1647,75 @@
         <v>0.141140338388336</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.272706908229694</v>
+        <v>0.325526171856949</v>
       </c>
       <c r="R8" t="n">
-        <v>0.389394498793406</v>
+        <v>0.196153525543893</v>
       </c>
       <c r="S8" t="n">
-        <v>0.173274633630052</v>
+        <v>0.450220698838461</v>
       </c>
       <c r="T8" t="n">
-        <v>0.443979101799447</v>
+        <v>0.65642166563217</v>
       </c>
       <c r="U8" t="n">
-        <v>0.383930474043521</v>
+        <v>0.365486794771743</v>
       </c>
       <c r="V8" t="n">
-        <v>0.311756122526772</v>
+        <v>0.270173430832847</v>
       </c>
       <c r="W8" t="n">
-        <v>0.226970747285084</v>
+        <v>0.481833731962799</v>
       </c>
       <c r="X8" t="n">
-        <v>0.504517242939738</v>
+        <v>0.0919046034831716</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.439177010447845</v>
+        <v>0.342489669253763</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.296809460070628</v>
+        <v>0.508299935428786</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.517035716394375</v>
+        <v>0.169199256350451</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.17151782907996</v>
+        <v>0.470294486883888</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.31502711646291</v>
+        <v>0.450705028035665</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.296102582957992</v>
+        <v>0.339474216380182</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.224062873425866</v>
+        <v>0.183461715231179</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.164807427153231</v>
+        <v>0.0263590403529736</v>
       </c>
       <c r="AG8" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AJ8" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
         <v>79</v>
@@ -1736,10 +1757,10 @@
         <v>0.137048016030253</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.415965908736096</v>
+        <v>0.415968391195749</v>
       </c>
       <c r="R9" t="n">
-        <v>0.261393218205005</v>
+        <v>0.261393517927414</v>
       </c>
       <c r="S9" t="n">
         <v>0.725655885327664</v>
@@ -1748,10 +1769,10 @@
         <v>0.591037818460459</v>
       </c>
       <c r="U9" t="n">
-        <v>0.29309877180589</v>
+        <v>0.293098218621624</v>
       </c>
       <c r="V9" t="n">
-        <v>0.196953194793833</v>
+        <v>0.19695605298448</v>
       </c>
       <c r="W9" t="n">
         <v>0.0859381674257013</v>
@@ -1760,10 +1781,10 @@
         <v>0.452135816615963</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.344637840191427</v>
+        <v>0.34463603939876</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.509499123926377</v>
+        <v>0.50949772537777</v>
       </c>
       <c r="AA9" t="n">
         <v>0.569583746172015</v>
@@ -1772,10 +1793,10 @@
         <v>0.226941629877991</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.418248000735362</v>
+        <v>0.418240647118301</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.328305910469712</v>
+        <v>0.328313264086773</v>
       </c>
       <c r="AE9" t="n">
         <v>0.137849067009835</v>
@@ -1790,7 +1811,7 @@
         <v>67</v>
       </c>
       <c r="AI9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AJ9" t="s">
         <v>68</v>
@@ -1798,16 +1819,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10" t="n">
         <v>40.358217</v>
@@ -1846,7 +1867,7 @@
         <v>0.138979491146434</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.399675374189391</v>
+        <v>0.399676731872367</v>
       </c>
       <c r="R10" t="n">
         <v>0.235995042348422</v>
@@ -1855,10 +1876,10 @@
         <v>0.535786135268456</v>
       </c>
       <c r="T10" t="n">
-        <v>0.703033398896009</v>
+        <v>0.703041014361947</v>
       </c>
       <c r="U10" t="n">
-        <v>0.280614319698918</v>
+        <v>0.280611488809424</v>
       </c>
       <c r="V10" t="n">
         <v>0.226152482983681</v>
@@ -1867,10 +1888,10 @@
         <v>0.405809793872041</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0941110344513225</v>
+        <v>0.0941118852351122</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.349037439668319</v>
+        <v>0.349037917058714</v>
       </c>
       <c r="Z10" t="n">
         <v>0.52239978010311</v>
@@ -1879,10 +1900,10 @@
         <v>0.237294328597067</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.57185629168214</v>
+        <v>0.571863326111119</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.407535619082636</v>
+        <v>0.407541134295432</v>
       </c>
       <c r="AD10" t="n">
         <v>0.260185678830775</v>
@@ -1891,7 +1912,7 @@
         <v>0.185233936942734</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.147044765143855</v>
+        <v>0.14703924993106</v>
       </c>
       <c r="AG10" t="s">
         <v>43</v>
@@ -1900,24 +1921,24 @@
         <v>67</v>
       </c>
       <c r="AI10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11" t="n">
         <v>40.361706</v>
@@ -1959,49 +1980,49 @@
         <v>0.289248161493874</v>
       </c>
       <c r="R11" t="n">
-        <v>0.345392986534981</v>
+        <v>0.345406163537031</v>
       </c>
       <c r="S11" t="n">
-        <v>0.230527927078996</v>
+        <v>0.230531973387848</v>
       </c>
       <c r="T11" t="n">
-        <v>0.762098152774453</v>
+        <v>0.762114125868153</v>
       </c>
       <c r="U11" t="n">
         <v>0.524212924672261</v>
       </c>
       <c r="V11" t="n">
-        <v>0.351364960083831</v>
+        <v>0.351366380888303</v>
       </c>
       <c r="W11" t="n">
-        <v>0.370273211272706</v>
+        <v>0.370274083266828</v>
       </c>
       <c r="X11" t="n">
-        <v>0.153259323148316</v>
+        <v>0.153175016973061</v>
       </c>
       <c r="Y11" t="n">
         <v>0.244790018145876</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.216402155958678</v>
+        <v>0.216391224379916</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.4557501912365</v>
+        <v>0.455742507614012</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.378868476605154</v>
+        <v>0.378950540526822</v>
       </c>
       <c r="AC11" t="n">
         <v>0.359838220424671</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.322564573949812</v>
+        <v>0.322555381928486</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.283496644912216</v>
+        <v>0.283515028954867</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0341005607133009</v>
+        <v>0.0340913686919754</v>
       </c>
       <c r="AG11" t="s">
         <v>53</v>
@@ -2010,10 +2031,10 @@
         <v>53</v>
       </c>
       <c r="AI11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ11" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -2027,653 +2048,873 @@
         <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E12" t="n">
-        <v>40.38491</v>
+        <v>40.353131</v>
       </c>
       <c r="F12" t="n">
-        <v>-74.75798</v>
+        <v>-74.719621</v>
       </c>
       <c r="G12" t="n">
-        <v>40.38963</v>
+        <v>40.358575</v>
       </c>
       <c r="H12" t="n">
-        <v>-74.768464</v>
+        <v>-74.730171</v>
       </c>
       <c r="I12" t="n">
-        <v>40.380318</v>
+        <v>40.348568</v>
       </c>
       <c r="J12" t="n">
-        <v>-74.747441</v>
+        <v>-74.709132</v>
       </c>
       <c r="K12" t="n">
-        <v>0.288194444444444</v>
+        <v>0.297297297297297</v>
       </c>
       <c r="L12" t="n">
-        <v>0.165625644183953</v>
+        <v>0.143397186220025</v>
       </c>
       <c r="M12" t="n">
-        <v>0.309352517985611</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="N12" t="n">
-        <v>0.17425360103742</v>
+        <v>0.128946674701446</v>
       </c>
       <c r="O12" t="n">
-        <v>0.447058823529412</v>
+        <v>0.298039215686275</v>
       </c>
       <c r="P12" t="n">
-        <v>0.180085140821213</v>
+        <v>0.15094287667387</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.318226342156731</v>
+        <v>0.274123292198291</v>
       </c>
       <c r="R12" t="n">
-        <v>0.19541918992706</v>
+        <v>0.38012000503097</v>
       </c>
       <c r="S12" t="n">
-        <v>0.601372757757101</v>
+        <v>0.156325084968312</v>
       </c>
       <c r="T12" t="n">
-        <v>0.610669690643926</v>
+        <v>0.796882778124095</v>
       </c>
       <c r="U12" t="n">
-        <v>0.380492414268433</v>
+        <v>0.480998915560477</v>
       </c>
       <c r="V12" t="n">
-        <v>0.212645284578752</v>
+        <v>0.392608202033823</v>
       </c>
       <c r="W12" t="n">
-        <v>0.599199056007246</v>
+        <v>0.2435991411495</v>
       </c>
       <c r="X12" t="n">
-        <v>0.110602377587529</v>
+        <v>0.115709328712787</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.347752163909266</v>
+        <v>0.375417797998275</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.569901152793701</v>
+        <v>0.174527756803048</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.116490197566229</v>
+        <v>0.513934242339317</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.513116929617547</v>
+        <v>0.46825596905429</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.41906976744186</v>
+        <v>0.454161228054049</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.378543983822042</v>
+        <v>0.404586818641419</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.121141649048626</v>
+        <v>0.0980126849894292</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.0812445996874713</v>
+        <v>0.0432392683151025</v>
       </c>
       <c r="AG12" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AH12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AI12" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" t="n">
+        <v>40.38491</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-74.75798</v>
+      </c>
+      <c r="G13" t="n">
+        <v>40.38963</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-74.768464</v>
+      </c>
+      <c r="I13" t="n">
+        <v>40.380318</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-74.747441</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.288194444444444</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.165625644183953</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.309352517985611</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.17425360103742</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.447058823529412</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.180085140821213</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.318191992499084</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.195416743507655</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.601326872996214</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.61065844833495</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.380504086414668</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.21263597153931</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.599078249077669</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.110615632932853</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.347794635952047</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.569905690060974</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.116491420304533</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.51306583266791</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.419027484143763</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.378520084566596</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.121194962772314</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.081257468517327</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI13" t="s">
         <v>102</v>
       </c>
-      <c r="B13" t="s">
+      <c r="AJ13" t="s">
         <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" t="n">
-        <v>40.328281</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-74.804559</v>
-      </c>
-      <c r="G13" t="n">
-        <v>40.333104</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-74.815095</v>
-      </c>
-      <c r="I13" t="n">
-        <v>40.323715</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-74.793998</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.179786001233683</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.165462244617678</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.154625437985062</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.310416238307163</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.147455856651701</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.470408374813743</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.679078737450031</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.339489785303576</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.203193344401856</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.530731595409279</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.0705809045750167</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.340843992749217</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.513818593422189</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.164648864457667</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0.531363140509733</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0.399786745105249</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0.322825627355455</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0.178156080522107</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0.0992315470171891</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" t="n">
+        <v>40.328281</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-74.804559</v>
+      </c>
+      <c r="G14" t="n">
+        <v>40.333104</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-74.815095</v>
+      </c>
+      <c r="I14" t="n">
+        <v>40.323715</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-74.793998</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.179786001233683</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.165462244617678</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.154625437985062</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.310418613839463</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.147456626893282</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.470408374813743</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.679078737450031</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.339490698037063</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.203195318734816</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.530731595409279</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.0705809045750167</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.340842778387912</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.513816157139661</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.164648864457667</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.531363140509733</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.399779391488188</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.322832980972516</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.178156080522107</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.0992315470171891</v>
+      </c>
+      <c r="AG14" t="s">
         <v>107</v>
-      </c>
-      <c r="B14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" t="n">
-        <v>40.321026</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-74.78868</v>
-      </c>
-      <c r="G14" t="n">
-        <v>40.325808</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-74.799129</v>
-      </c>
-      <c r="I14" t="n">
-        <v>40.316351</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-74.778149</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.358974358974359</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.15598367158197</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.336842105263158</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.175385504453863</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.329411764705882</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.146072838857797</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.35974199194642</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.190870402707163</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.493682659988917</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.65469839565159</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.355338747054038</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.210600151377449</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.573773037174753</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.0784541499041648</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.302026561186106</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.487802406817003</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.154860734897999</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0.497898344058385</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0.4369923706223</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0.285187976836106</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.195424211784171</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0.0823954407574226</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>110</v>
       </c>
       <c r="AH14" t="s">
         <v>60</v>
       </c>
       <c r="AI14" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="AJ14" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" t="n">
+        <v>40.321026</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-74.78868</v>
+      </c>
+      <c r="G15" t="n">
+        <v>40.325808</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-74.799129</v>
+      </c>
+      <c r="I15" t="n">
+        <v>40.316351</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-74.778149</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.15598367158197</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.336842105263158</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.175385504453863</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.329411764705882</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.146072838857797</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.359686658903608</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.190813627854866</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.493685830267021</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.65469839565159</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.355330342544111</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.21050852171958</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.573727741066063</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.0784541499041648</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.302092587887813</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.487847700895376</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.154870702572118</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.497898344058385</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.437148634984833</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.284987590771211</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.195468333486534</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.0823954407574226</v>
+      </c>
+      <c r="AG15" t="s">
         <v>112</v>
       </c>
-      <c r="B15" t="s">
+      <c r="AH15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI15" t="s">
         <v>113</v>
       </c>
-      <c r="C15" t="s">
+      <c r="AJ15" t="s">
         <v>114</v>
-      </c>
-      <c r="D15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" t="n">
-        <v>40.343974</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-74.656639</v>
-      </c>
-      <c r="G15" t="n">
-        <v>40.349467</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-74.667281</v>
-      </c>
-      <c r="I15" t="n">
-        <v>40.339448</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-74.646367</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.203789290474899</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.205479452054794</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.129911274442109</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.450980392156863</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.149190717183595</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.344514000933866</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.557131845189023</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.721989349390599</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.165219304346274</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.228546620479646</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.325921983844829</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.07877886162279</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.0903806630941466</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.441412870849805</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.291661902167883</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.60831190027466</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0.609637980913303</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0.369940251861384</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0.296389374023348</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0.226250574501333</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0.107419799613935</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" t="n">
+        <v>40.343974</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-74.656639</v>
+      </c>
+      <c r="G16" t="n">
+        <v>40.349467</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-74.667281</v>
+      </c>
+      <c r="I16" t="n">
+        <v>40.339448</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-74.646367</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.203789290474899</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.205479452054794</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.129911274442109</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.450980392156863</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.149190717183595</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.468201176281044</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.251405966242823</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.723356854070785</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.592054341824979</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.250050137736934</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.165546170686864</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.0764056266413954</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.445737965962639</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.353712132740142</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.531927015414083</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.616548908590129</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.256772466900468</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.378782976376505</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.29389465943561</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.218196525415939</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.109125838771946</v>
+      </c>
+      <c r="AG16" t="s">
         <v>119</v>
       </c>
-      <c r="B16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" t="n">
-        <v>40.342717</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-74.650305</v>
-      </c>
-      <c r="G16" t="n">
-        <v>40.348189</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-74.660791</v>
-      </c>
-      <c r="I16" t="n">
-        <v>40.33804</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-74.639794</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.401234567901235</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.190442775284621</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.239583333333333</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.127703309174295</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.407843137254902</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.144644469374759</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.339678597503287</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.530503122548382</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.702316626659081</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.178548136532459</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.263108358935227</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.346706682755228</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.0876216733096653</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.132104272194292</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.416056768856574</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.262624238844213</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.547597315165699</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0.587436409106286</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0.381862303520544</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0.294379998161596</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0.164540858534792</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0.159216839783068</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>122</v>
-      </c>
       <c r="AH16" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="AI16" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" t="n">
+        <v>40.342717</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-74.650305</v>
+      </c>
+      <c r="G17" t="n">
+        <v>40.348189</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-74.660791</v>
+      </c>
+      <c r="I17" t="n">
+        <v>40.33804</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-74.639794</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.401234567901235</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.190442775284621</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.239583333333333</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.127703309174295</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.407843137254902</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.144644469374759</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.339031832334921</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.52958372822167</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.702315576925458</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.177921169342105</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.262604386419732</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.346428783569233</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.0876092333192684</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.131672441686606</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.416845703855392</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.263114292064012</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.547609883320447</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.588084725952029</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.380751907344425</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.296661457854582</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.164529828109201</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.158056806691792</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>126</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>127</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>128</v>
       </c>
-      <c r="D17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" t="n">
+        <v>40.345588</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-74.654241</v>
+      </c>
+      <c r="G18" t="n">
+        <v>40.351254</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-74.664658</v>
+      </c>
+      <c r="I18" t="n">
+        <v>40.341234</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-74.644531</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.208696672274872</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.192982456140351</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.131937647559447</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.462745098039216</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.151481193779287</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.468906246202833</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.233708213387737</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.721475686588279</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.587053296224064</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.244123934463075</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.150132397002456</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.0753442219477299</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.436546212078398</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.370386129067461</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.548088674650397</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.623265471011831</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.267089305537663</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.385002298005331</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.251263902932255</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.246186230352054</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.117547568710359</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" t="n">
         <v>40.334348</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F19" t="n">
         <v>-74.647146</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G19" t="n">
         <v>40.339777</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H19" t="n">
         <v>-74.657633</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I19" t="n">
         <v>40.329822</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J19" t="n">
         <v>-74.636555</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K19" t="n">
         <v>0.397849462365591</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L19" t="n">
         <v>0.185525355726783</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M19" t="n">
         <v>0.256410256410256</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N19" t="n">
         <v>0.126551194230143</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O19" t="n">
         <v>0.403921568627451</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P19" t="n">
         <v>0.14517297296093</v>
       </c>
-      <c r="Q17" t="n">
-        <v>0.501059510184396</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.326743136334162</v>
-      </c>
-      <c r="S17" t="n">
+      <c r="Q19" t="n">
+        <v>0.501073712888876</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.32674098177454</v>
+      </c>
+      <c r="S19" t="n">
         <v>0.163123215176832</v>
       </c>
-      <c r="T17" t="n">
-        <v>0.708631664241287</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.347916147550062</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.267123264763407</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="T19" t="n">
+        <v>0.708645208321089</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.347887624441874</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.267131916124209</v>
+      </c>
+      <c r="W19" t="n">
         <v>0.133304387082807</v>
       </c>
-      <c r="X17" t="n">
-        <v>0.0827013893129456</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.271166828384603</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.434737469188166</v>
-      </c>
-      <c r="AA17" t="n">
+      <c r="X19" t="n">
+        <v>0.0826916764915203</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.271162351512836</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.434743938732916</v>
+      </c>
+      <c r="AA19" t="n">
         <v>0.599291630794096</v>
       </c>
-      <c r="AB17" t="n">
-        <v>0.545369178617046</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0.35530471550694</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0.351982718999908</v>
-      </c>
-      <c r="AE17" t="n">
+      <c r="AB19" t="n">
+        <v>0.545428189568998</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.355337806783712</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.351980880595643</v>
+      </c>
+      <c r="AE19" t="n">
         <v>0.15399577167019</v>
       </c>
-      <c r="AF17" t="n">
-        <v>0.138716793822962</v>
-      </c>
-      <c r="AG17" t="s">
+      <c r="AF19" t="n">
+        <v>0.138685540950455</v>
+      </c>
+      <c r="AG19" t="s">
         <v>66</v>
       </c>
-      <c r="AH17" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>124</v>
+      <c r="AH19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2692,10 +2933,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2">
@@ -2703,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -2711,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4">
@@ -2719,7 +2960,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5">
@@ -2727,7 +2968,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6">
@@ -2735,7 +2976,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7">
@@ -2743,7 +2984,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -2751,7 +2992,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9">
@@ -2759,7 +3000,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
@@ -2767,7 +3008,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11">
@@ -2775,7 +3016,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
@@ -2783,7 +3024,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
@@ -2791,7 +3032,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
@@ -2799,7 +3040,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
@@ -2807,7 +3048,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
@@ -2815,7 +3056,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
@@ -2823,7 +3064,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
@@ -2831,7 +3072,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19">
@@ -2839,7 +3080,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
@@ -2847,7 +3088,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
@@ -2855,7 +3096,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22">
@@ -2863,7 +3104,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23">
@@ -2871,7 +3112,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24">
@@ -2879,7 +3120,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25">
@@ -2887,7 +3128,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26">
@@ -2895,7 +3136,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27">
@@ -2903,7 +3144,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28">
@@ -2911,7 +3152,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29">
@@ -2919,7 +3160,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30">
@@ -2927,7 +3168,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31">
@@ -2935,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32">
@@ -2943,7 +3184,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33">
@@ -2951,7 +3192,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34">
@@ -2959,7 +3200,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
@@ -2967,7 +3208,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36">
@@ -2975,7 +3216,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37">
@@ -2983,7 +3224,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/satelliteData/satHsvFinal4_1000ft.xlsx
+++ b/datasets/satelliteData/satHsvFinal4_1000ft.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t xml:space="preserve">sat_label</t>
   </si>
@@ -174,13 +174,10 @@
     <t xml:space="preserve">Lawrenceville School’s Big Red Farm</t>
   </si>
   <si>
-    <t xml:space="preserve">gray17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dimgray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray11</t>
+    <t xml:space="preserve">gray19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray10</t>
   </si>
   <si>
     <t xml:space="preserve">farmStony1000</t>
@@ -288,10 +285,10 @@
     <t xml:space="preserve">gray20</t>
   </si>
   <si>
-    <t xml:space="preserve">preserveMtRose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/preserveMtRose.png</t>
+    <t xml:space="preserve">preserveMtRose1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/preserveMtRose1000.png</t>
   </si>
   <si>
     <t xml:space="preserve">Mt Rose Preserve</t>
@@ -300,6 +297,12 @@
     <t xml:space="preserve">darkolivegreen4</t>
   </si>
   <si>
+    <t xml:space="preserve">gray16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray32</t>
+  </si>
+  <si>
     <t xml:space="preserve">preserveStonyOctagon1000</t>
   </si>
   <si>
@@ -372,61 +375,73 @@
     <t xml:space="preserve">univ</t>
   </si>
   <si>
-    <t xml:space="preserve">gray32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">univForestSwTrack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/univForestSwTrack.png</t>
+    <t xml:space="preserve">gray38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">univForestSwTrack1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/univForestSwTrack1000.png</t>
   </si>
   <si>
     <t xml:space="preserve">Forest; SW Track and Jadwin Gym; Princeton Univ</t>
   </si>
   <si>
+    <t xml:space="preserve">palegreen4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">univGuyotHall1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/univGuyotHall1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyot Hall; Princeton Univ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightyellow4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">univSolarFarm1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/univSolarFarm1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Sheep Farm; Princeton Univ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urbanLibrary1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/urbanLibrary1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princeton Public Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urban</t>
+  </si>
+  <si>
     <t xml:space="preserve">gray34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">univGuyotHall1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/univGuyotHall1000.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyot Hall; Princeton Univ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightyellow4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">univSolarFarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/univSolarFarm.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar Sheep Farm; Princeton Univ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray57</t>
   </si>
   <si>
     <t xml:space="preserve">variableName</t>
@@ -987,52 +1002,52 @@
         <v>0.152010994674507</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.273583737895105</v>
+        <v>0.273593597022877</v>
       </c>
       <c r="R2" t="n">
-        <v>0.393950972299106</v>
+        <v>0.393991948326172</v>
       </c>
       <c r="S2" t="n">
-        <v>0.168299839563669</v>
+        <v>0.168287954747946</v>
       </c>
       <c r="T2" t="n">
-        <v>0.66378837658881</v>
+        <v>0.663922307313154</v>
       </c>
       <c r="U2" t="n">
-        <v>0.441035890918189</v>
+        <v>0.441020814359955</v>
       </c>
       <c r="V2" t="n">
-        <v>0.42275262810762</v>
+        <v>0.422746424692849</v>
       </c>
       <c r="W2" t="n">
-        <v>0.212963816501007</v>
+        <v>0.212956782088121</v>
       </c>
       <c r="X2" t="n">
-        <v>0.151712187877889</v>
+        <v>0.151417676974639</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.421396727232995</v>
+        <v>0.421373156284539</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.194863752338239</v>
+        <v>0.194828064474306</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.533792055845746</v>
+        <v>0.533809510794997</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.331023753033897</v>
+        <v>0.331433341120186</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.465278058645096</v>
+        <v>0.465381009283942</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.393525140178325</v>
+        <v>0.393484695284493</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.114760547844471</v>
+        <v>0.114747679014615</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0264362533321077</v>
+        <v>0.0263866164169501</v>
       </c>
       <c r="AG2" t="s">
         <v>40</v>
@@ -1097,52 +1112,52 @@
         <v>0.147324379382068</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.340043173001126</v>
+        <v>0.340023090315007</v>
       </c>
       <c r="R3" t="n">
-        <v>0.26861033140328</v>
+        <v>0.268568763594189</v>
       </c>
       <c r="S3" t="n">
-        <v>0.16267344165849</v>
+        <v>0.162616882823827</v>
       </c>
       <c r="T3" t="n">
-        <v>0.708266067680774</v>
+        <v>0.708114053715526</v>
       </c>
       <c r="U3" t="n">
-        <v>0.400759103417073</v>
+        <v>0.400869961107318</v>
       </c>
       <c r="V3" t="n">
-        <v>0.469370909440565</v>
+        <v>0.469306371035103</v>
       </c>
       <c r="W3" t="n">
-        <v>0.253917394275247</v>
+        <v>0.253769384950238</v>
       </c>
       <c r="X3" t="n">
-        <v>0.230561384885096</v>
+        <v>0.230385027994257</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.190041684611937</v>
+        <v>0.190089081263294</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.398781554589736</v>
+        <v>0.398912567442364</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.4811805223434</v>
+        <v>0.481185991416441</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.25291507639002</v>
+        <v>0.252896614623221</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.419321628826179</v>
+        <v>0.419606581487269</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.406598032907436</v>
+        <v>0.406438091736373</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.11690228881331</v>
+        <v>0.116764408493428</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0571780494530747</v>
+        <v>0.0571909182829304</v>
       </c>
       <c r="AG3" t="s">
         <v>47</v>
@@ -1207,52 +1222,52 @@
         <v>0.124575208210256</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.269142003520267</v>
+        <v>0.258269133738197</v>
       </c>
       <c r="R4" t="n">
-        <v>0.349931773382661</v>
+        <v>0.334913673362688</v>
       </c>
       <c r="S4" t="n">
-        <v>0.219612418644118</v>
+        <v>0.444596806192728</v>
       </c>
       <c r="T4" t="n">
-        <v>0.539815729181687</v>
+        <v>0.666599959702504</v>
       </c>
       <c r="U4" t="n">
-        <v>0.496198325371254</v>
+        <v>0.463368854784244</v>
       </c>
       <c r="V4" t="n">
-        <v>0.458741117685476</v>
+        <v>0.441118969805382</v>
       </c>
       <c r="W4" t="n">
-        <v>0.290959577648733</v>
+        <v>0.50023244836852</v>
       </c>
       <c r="X4" t="n">
-        <v>0.406439800739569</v>
+        <v>0.150240297754284</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.437767287040943</v>
+        <v>0.448426107378645</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.238905102323143</v>
+        <v>0.268026110291389</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.467193069163766</v>
+        <v>0.126247734540204</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.138955055242208</v>
+        <v>0.331141891392542</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.534152036032724</v>
+        <v>0.61219965070319</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.306962036951926</v>
+        <v>0.284077580659987</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.110934828568802</v>
+        <v>0.0944553727364647</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0479510984465484</v>
+        <v>0.00926739590035849</v>
       </c>
       <c r="AG4" t="s">
         <v>40</v>
@@ -1264,18 +1279,18 @@
         <v>54</v>
       </c>
       <c r="AJ4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -1317,78 +1332,78 @@
         <v>0.151307451278683</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.274122902615614</v>
+        <v>0.274127026871889</v>
       </c>
       <c r="R5" t="n">
-        <v>0.38057154655442</v>
+        <v>0.380623837083432</v>
       </c>
       <c r="S5" t="n">
-        <v>0.158513472126041</v>
+        <v>0.158508309872703</v>
       </c>
       <c r="T5" t="n">
-        <v>0.796275510306232</v>
+        <v>0.796531306095702</v>
       </c>
       <c r="U5" t="n">
-        <v>0.480704227987034</v>
+        <v>0.480723080020152</v>
       </c>
       <c r="V5" t="n">
-        <v>0.391877103611394</v>
+        <v>0.391805887532378</v>
       </c>
       <c r="W5" t="n">
-        <v>0.245901541602121</v>
+        <v>0.245917796872975</v>
       </c>
       <c r="X5" t="n">
-        <v>0.115283595285406</v>
+        <v>0.115189742242762</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.375650034991203</v>
+        <v>0.375619638919955</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.17411632902896</v>
+        <v>0.174117364122529</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.510220758169917</v>
+        <v>0.510231556667733</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.468566718722895</v>
+        <v>0.46906448710872</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.451629745381009</v>
+        <v>0.451679382296167</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.402581119588197</v>
+        <v>0.402595826822318</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.103410239911757</v>
+        <v>0.103412078316022</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0423788951190367</v>
+        <v>0.0423127125654932</v>
       </c>
       <c r="AG5" t="s">
         <v>40</v>
       </c>
       <c r="AH5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI5" t="s">
         <v>59</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>60</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" t="s">
-        <v>65</v>
       </c>
       <c r="E6" t="n">
         <v>40.365934</v>
@@ -1427,78 +1442,78 @@
         <v>0.125021481311787</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.38875214222588</v>
+        <v>0.388700418826682</v>
       </c>
       <c r="R6" t="n">
-        <v>0.254714918654253</v>
+        <v>0.254650554293366</v>
       </c>
       <c r="S6" t="n">
-        <v>0.528667242954064</v>
+        <v>0.528654743822197</v>
       </c>
       <c r="T6" t="n">
         <v>0.687232981656784</v>
       </c>
       <c r="U6" t="n">
-        <v>0.308664346580309</v>
+        <v>0.308684615950885</v>
       </c>
       <c r="V6" t="n">
-        <v>0.278852649261944</v>
+        <v>0.278793265192817</v>
       </c>
       <c r="W6" t="n">
-        <v>0.417845628789337</v>
+        <v>0.417779462462765</v>
       </c>
       <c r="X6" t="n">
         <v>0.103640442020803</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.333091288121562</v>
+        <v>0.333158984159243</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.505830763597149</v>
+        <v>0.505896048687332</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.215749398495713</v>
+        <v>0.215752388167022</v>
       </c>
       <c r="AB6" t="n">
         <v>0.527620680364344</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.492532401875172</v>
+        <v>0.492650059748139</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.240783160216932</v>
+        <v>0.240564390109385</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.200325397554922</v>
+        <v>0.200426509789503</v>
       </c>
       <c r="AF6" t="n">
         <v>0.0663590403529736</v>
       </c>
       <c r="AG6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH6" t="s">
         <v>66</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>67</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>68</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
         <v>70</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>71</v>
       </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" t="n">
         <v>40.347059</v>
@@ -1585,13 +1600,13 @@
         <v>0.136652265833257</v>
       </c>
       <c r="AG7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH7" t="s">
         <v>73</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>74</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>75</v>
       </c>
       <c r="AJ7" t="s">
         <v>49</v>
@@ -1599,16 +1614,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
         <v>76</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>77</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>78</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
       </c>
       <c r="E8" t="n">
         <v>40.364166</v>
@@ -1695,30 +1710,30 @@
         <v>0.0263590403529736</v>
       </c>
       <c r="AG8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>80</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
         <v>82</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>83</v>
       </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" t="n">
         <v>40.338103</v>
@@ -1757,10 +1772,10 @@
         <v>0.137048016030253</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.415968391195749</v>
+        <v>0.415965908736096</v>
       </c>
       <c r="R9" t="n">
-        <v>0.261393517927414</v>
+        <v>0.261393218205005</v>
       </c>
       <c r="S9" t="n">
         <v>0.725655885327664</v>
@@ -1769,10 +1784,10 @@
         <v>0.591037818460459</v>
       </c>
       <c r="U9" t="n">
-        <v>0.293098218621624</v>
+        <v>0.29309877180589</v>
       </c>
       <c r="V9" t="n">
-        <v>0.19695605298448</v>
+        <v>0.196953194793833</v>
       </c>
       <c r="W9" t="n">
         <v>0.0859381674257013</v>
@@ -1781,10 +1796,10 @@
         <v>0.452135816615963</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.34463603939876</v>
+        <v>0.344637840191427</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.50949772537777</v>
+        <v>0.509499123926377</v>
       </c>
       <c r="AA9" t="n">
         <v>0.569583746172015</v>
@@ -1793,10 +1808,10 @@
         <v>0.226941629877991</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.418240647118301</v>
+        <v>0.418248000735362</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.328313264086773</v>
+        <v>0.328305910469712</v>
       </c>
       <c r="AE9" t="n">
         <v>0.137849067009835</v>
@@ -1805,30 +1820,30 @@
         <v>0.115597021785091</v>
       </c>
       <c r="AG9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH9" t="s">
         <v>66</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>67</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
         <v>86</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>87</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>88</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
       </c>
       <c r="E10" t="n">
         <v>40.358217</v>
@@ -1867,78 +1882,78 @@
         <v>0.138979491146434</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.399676731872367</v>
+        <v>0.399673525429914</v>
       </c>
       <c r="R10" t="n">
         <v>0.235995042348422</v>
       </c>
       <c r="S10" t="n">
-        <v>0.535786135268456</v>
+        <v>0.535821281157953</v>
       </c>
       <c r="T10" t="n">
-        <v>0.703041014361947</v>
+        <v>0.703033398896009</v>
       </c>
       <c r="U10" t="n">
-        <v>0.280611488809424</v>
+        <v>0.280627358314391</v>
       </c>
       <c r="V10" t="n">
         <v>0.226152482983681</v>
       </c>
       <c r="W10" t="n">
-        <v>0.405809793872041</v>
+        <v>0.405809682776378</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0941118852351122</v>
+        <v>0.0941110344513225</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.349037917058714</v>
+        <v>0.349033864747955</v>
       </c>
       <c r="Z10" t="n">
         <v>0.52239978010311</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.237294328597067</v>
+        <v>0.237276683046266</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.571863326111119</v>
+        <v>0.57185629168214</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.407541134295432</v>
+        <v>0.407577902380734</v>
       </c>
       <c r="AD10" t="n">
         <v>0.260185678830775</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.185233936942734</v>
+        <v>0.185191653644636</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.14703924993106</v>
+        <v>0.147044765143855</v>
       </c>
       <c r="AG10" t="s">
         <v>43</v>
       </c>
       <c r="AH10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AJ10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>92</v>
       </c>
-      <c r="C11" t="s">
-        <v>93</v>
-      </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" t="n">
         <v>40.361706</v>
@@ -1959,96 +1974,96 @@
         <v>-74.727101</v>
       </c>
       <c r="K11" t="n">
-        <v>0.292682926829268</v>
+        <v>0.283018867924528</v>
       </c>
       <c r="L11" t="n">
-        <v>0.117155588117295</v>
+        <v>0.130246206027812</v>
       </c>
       <c r="M11" t="n">
-        <v>0.423076923076923</v>
+        <v>0.441176470588235</v>
       </c>
       <c r="N11" t="n">
-        <v>0.129359873834724</v>
+        <v>0.145536268713076</v>
       </c>
       <c r="O11" t="n">
-        <v>0.290196078431373</v>
+        <v>0.294117647058824</v>
       </c>
       <c r="P11" t="n">
-        <v>0.134753357098093</v>
+        <v>0.152339414102115</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.289248161493874</v>
+        <v>0.225654544709994</v>
       </c>
       <c r="R11" t="n">
-        <v>0.345406163537031</v>
+        <v>0.315242513877571</v>
       </c>
       <c r="S11" t="n">
-        <v>0.230531973387848</v>
+        <v>0.274263981895109</v>
       </c>
       <c r="T11" t="n">
-        <v>0.762114125868153</v>
+        <v>0.796393887239407</v>
       </c>
       <c r="U11" t="n">
-        <v>0.524212924672261</v>
+        <v>0.392584649160452</v>
       </c>
       <c r="V11" t="n">
-        <v>0.351366380888303</v>
+        <v>0.365284947429485</v>
       </c>
       <c r="W11" t="n">
-        <v>0.370274083266828</v>
+        <v>0.566622427444349</v>
       </c>
       <c r="X11" t="n">
-        <v>0.153175016973061</v>
+        <v>0.198526502705171</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.244790018145876</v>
+        <v>0.464676528536453</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.216391224379916</v>
+        <v>0.208190007801482</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.455742507614012</v>
+        <v>0.220857814227363</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.378950540526822</v>
+        <v>0.348076886438703</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.359838220424671</v>
+        <v>0.327513558231455</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.322555381928486</v>
+        <v>0.319141465208199</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.283515028954867</v>
+        <v>0.311719827189999</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0340913686919754</v>
+        <v>0.0416251493703465</v>
       </c>
       <c r="AG11" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="AH11" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="AI11" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" t="n">
         <v>40.353131</v>
@@ -2087,49 +2102,49 @@
         <v>0.15094287667387</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.274123292198291</v>
+        <v>0.274140549487151</v>
       </c>
       <c r="R12" t="n">
-        <v>0.38012000503097</v>
+        <v>0.380155491479188</v>
       </c>
       <c r="S12" t="n">
-        <v>0.156325084968312</v>
+        <v>0.156350510864133</v>
       </c>
       <c r="T12" t="n">
         <v>0.796882778124095</v>
       </c>
       <c r="U12" t="n">
-        <v>0.480998915560477</v>
+        <v>0.481019680574133</v>
       </c>
       <c r="V12" t="n">
-        <v>0.392608202033823</v>
+        <v>0.39254884883825</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2435991411495</v>
+        <v>0.243632178734637</v>
       </c>
       <c r="X12" t="n">
         <v>0.115709328712787</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.375417797998275</v>
+        <v>0.375342575525605</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.174527756803048</v>
+        <v>0.174505266657839</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.513934242339317</v>
+        <v>0.513922270890391</v>
       </c>
       <c r="AB12" t="n">
         <v>0.46825596905429</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.454161228054049</v>
+        <v>0.454335876459233</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.404586818641419</v>
+        <v>0.404384594172258</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.0980126849894292</v>
+        <v>0.0980402610534056</v>
       </c>
       <c r="AF12" t="n">
         <v>0.0432392683151025</v>
@@ -2138,27 +2153,27 @@
         <v>40</v>
       </c>
       <c r="AH12" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="AI12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>60</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E13" t="n">
         <v>40.38491</v>
@@ -2245,30 +2260,30 @@
         <v>0.081257468517327</v>
       </c>
       <c r="AG13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s">
         <v>42</v>
       </c>
       <c r="AI13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E14" t="n">
         <v>40.328281</v>
@@ -2355,30 +2370,30 @@
         <v>0.0992315470171891</v>
       </c>
       <c r="AG14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AH14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E15" t="n">
         <v>40.321026</v>
@@ -2417,78 +2432,78 @@
         <v>0.146072838857797</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.359686658903608</v>
+        <v>0.35974199194642</v>
       </c>
       <c r="R15" t="n">
-        <v>0.190813627854866</v>
+        <v>0.190870402707163</v>
       </c>
       <c r="S15" t="n">
-        <v>0.493685830267021</v>
+        <v>0.493682659988917</v>
       </c>
       <c r="T15" t="n">
         <v>0.65469839565159</v>
       </c>
       <c r="U15" t="n">
-        <v>0.355330342544111</v>
+        <v>0.355338747054038</v>
       </c>
       <c r="V15" t="n">
-        <v>0.21050852171958</v>
+        <v>0.210600151377449</v>
       </c>
       <c r="W15" t="n">
-        <v>0.573727741066063</v>
+        <v>0.573773037174753</v>
       </c>
       <c r="X15" t="n">
         <v>0.0784541499041648</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.302092587887813</v>
+        <v>0.302026561186106</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.487847700895376</v>
+        <v>0.487802406817003</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.154870702572118</v>
+        <v>0.154860734897999</v>
       </c>
       <c r="AB15" t="n">
         <v>0.497898344058385</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.437148634984833</v>
+        <v>0.4369923706223</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.284987590771211</v>
+        <v>0.285187976836106</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.195468333486534</v>
+        <v>0.195424211784171</v>
       </c>
       <c r="AF15" t="n">
         <v>0.0823954407574226</v>
       </c>
       <c r="AG15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E16" t="n">
         <v>40.343974</v>
@@ -2527,78 +2542,78 @@
         <v>0.149190717183595</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.468201176281044</v>
+        <v>0.344515353801936</v>
       </c>
       <c r="R16" t="n">
-        <v>0.251405966242823</v>
+        <v>0.557203990921375</v>
       </c>
       <c r="S16" t="n">
-        <v>0.723356854070785</v>
+        <v>0.721986009585901</v>
       </c>
       <c r="T16" t="n">
-        <v>0.592054341824979</v>
+        <v>0.165219304346274</v>
       </c>
       <c r="U16" t="n">
-        <v>0.250050137736934</v>
+        <v>0.228551463329287</v>
       </c>
       <c r="V16" t="n">
-        <v>0.165546170686864</v>
+        <v>0.325835073060839</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0764056266413954</v>
+        <v>0.0787650700358435</v>
       </c>
       <c r="X16" t="n">
-        <v>0.445737965962639</v>
+        <v>0.0903806630941466</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.353712132740142</v>
+        <v>0.441412318151104</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.531927015414083</v>
+        <v>0.291670390013409</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.616548908590129</v>
+        <v>0.608453974482882</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.256772466900468</v>
+        <v>0.609637980913303</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.378782976376505</v>
+        <v>0.369951282286975</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.29389465943561</v>
+        <v>0.296492324662193</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.218196525415939</v>
+        <v>0.226136593436897</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.109125838771946</v>
+        <v>0.107419799613935</v>
       </c>
       <c r="AG16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AH16" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AI16" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="AJ16" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E17" t="n">
         <v>40.342717</v>
@@ -2619,96 +2634,96 @@
         <v>-74.639794</v>
       </c>
       <c r="K17" t="n">
-        <v>0.401234567901235</v>
+        <v>0.404761904761905</v>
       </c>
       <c r="L17" t="n">
-        <v>0.190442775284621</v>
+        <v>0.207946800470621</v>
       </c>
       <c r="M17" t="n">
-        <v>0.239583333333333</v>
+        <v>0.221476510067114</v>
       </c>
       <c r="N17" t="n">
-        <v>0.127703309174295</v>
+        <v>0.130974989768815</v>
       </c>
       <c r="O17" t="n">
-        <v>0.407843137254902</v>
+        <v>0.462745098039216</v>
       </c>
       <c r="P17" t="n">
-        <v>0.144644469374759</v>
+        <v>0.148012868613318</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.339031832334921</v>
+        <v>0.330409397722325</v>
       </c>
       <c r="R17" t="n">
-        <v>0.52958372822167</v>
+        <v>0.562380062932054</v>
       </c>
       <c r="S17" t="n">
-        <v>0.702315576925458</v>
+        <v>0.723004157807538</v>
       </c>
       <c r="T17" t="n">
-        <v>0.177921169342105</v>
+        <v>0.162007877344077</v>
       </c>
       <c r="U17" t="n">
-        <v>0.262604386419732</v>
+        <v>0.257655167452129</v>
       </c>
       <c r="V17" t="n">
-        <v>0.346428783569233</v>
+        <v>0.321098945990233</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0876092333192684</v>
+        <v>0.0770772194350132</v>
       </c>
       <c r="X17" t="n">
-        <v>0.131672441686606</v>
+        <v>0.130193485964108</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.416845703855392</v>
+        <v>0.455036269646399</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.263114292064012</v>
+        <v>0.279098149944901</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.547609883320447</v>
+        <v>0.608152329061396</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.588084725952029</v>
+        <v>0.597050402754937</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.380751907344425</v>
+        <v>0.374672304439746</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.296661457854582</v>
+        <v>0.300150749149738</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.164529828109201</v>
+        <v>0.170214174096884</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.158056806691792</v>
+        <v>0.154962772313632</v>
       </c>
       <c r="AG17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AH17" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AI17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AJ17" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E18" t="n">
         <v>40.345588</v>
@@ -2747,78 +2762,78 @@
         <v>0.151481193779287</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.468906246202833</v>
+        <v>0.468845213134747</v>
       </c>
       <c r="R18" t="n">
-        <v>0.233708213387737</v>
+        <v>0.233652423164739</v>
       </c>
       <c r="S18" t="n">
-        <v>0.721475686588279</v>
+        <v>0.721476344799293</v>
       </c>
       <c r="T18" t="n">
-        <v>0.587053296224064</v>
+        <v>0.587049234857141</v>
       </c>
       <c r="U18" t="n">
-        <v>0.244123934463075</v>
+        <v>0.244097902240493</v>
       </c>
       <c r="V18" t="n">
-        <v>0.150132397002456</v>
+        <v>0.150102499826466</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0753442219477299</v>
+        <v>0.0753438105539739</v>
       </c>
       <c r="X18" t="n">
-        <v>0.436546212078398</v>
+        <v>0.436502103303244</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.370386129067461</v>
+        <v>0.370421643840245</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.548088674650397</v>
+        <v>0.548140699911003</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.623265471011831</v>
+        <v>0.623266757566277</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.267089305537663</v>
+        <v>0.267115120940113</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.385002298005331</v>
+        <v>0.385092379814321</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.251263902932255</v>
+        <v>0.251126022612372</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.246186230352054</v>
+        <v>0.246184391947789</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.117547568710359</v>
+        <v>0.117597205625517</v>
       </c>
       <c r="AG18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AH18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E19" t="n">
         <v>40.334348</v>
@@ -2839,82 +2854,192 @@
         <v>-74.636555</v>
       </c>
       <c r="K19" t="n">
-        <v>0.397849462365591</v>
+        <v>0.362179487179487</v>
       </c>
       <c r="L19" t="n">
-        <v>0.185525355726783</v>
+        <v>0.193852706633835</v>
       </c>
       <c r="M19" t="n">
-        <v>0.256410256410256</v>
+        <v>0.255813953488372</v>
       </c>
       <c r="N19" t="n">
-        <v>0.126551194230143</v>
+        <v>0.127280136763123</v>
       </c>
       <c r="O19" t="n">
-        <v>0.403921568627451</v>
+        <v>0.450980392156863</v>
       </c>
       <c r="P19" t="n">
-        <v>0.14517297296093</v>
+        <v>0.15365083999453</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.501073712888876</v>
+        <v>0.328908961569915</v>
       </c>
       <c r="R19" t="n">
-        <v>0.32674098177454</v>
+        <v>0.516869014901083</v>
       </c>
       <c r="S19" t="n">
-        <v>0.163123215176832</v>
+        <v>0.144878134207297</v>
       </c>
       <c r="T19" t="n">
-        <v>0.708645208321089</v>
+        <v>0.697325212472582</v>
       </c>
       <c r="U19" t="n">
-        <v>0.347887624441874</v>
+        <v>0.287992638751605</v>
       </c>
       <c r="V19" t="n">
-        <v>0.267131916124209</v>
+        <v>0.391552974492662</v>
       </c>
       <c r="W19" t="n">
-        <v>0.133304387082807</v>
+        <v>0.156870617791539</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0826916764915203</v>
+        <v>0.0938784165995146</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.271162351512836</v>
+        <v>0.439052831860856</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.434743938732916</v>
+        <v>0.263675853489108</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.599291630794096</v>
+        <v>0.632919313230919</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.545428189568998</v>
+        <v>0.503806669874099</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.355337806783712</v>
+        <v>0.394615313907528</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.351980880595643</v>
+        <v>0.248112878021877</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.15399577167019</v>
+        <v>0.234321169225113</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.138685540950455</v>
+        <v>0.122950638845482</v>
       </c>
       <c r="AG19" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="AH19" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="AI19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AJ19" t="s">
-        <v>125</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" t="n">
+        <v>40.35151</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-74.660325</v>
+      </c>
+      <c r="G20" t="n">
+        <v>40.363008</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-74.68288</v>
+      </c>
+      <c r="I20" t="n">
+        <v>40.3416</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-74.637668</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.471014492753623</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.207287498237716</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.184615384615385</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.127402112423376</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.447058823529412</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.1451947660688</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.414318832892648</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.718293884970246</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.209703899619444</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.591959534877167</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.239618177532017</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.0816646293284205</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.107909153661623</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.392746272697813</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.385328747398669</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.602919807322348</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.557030623131057</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.282229018698862</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.395345160400772</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.284070227042927</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.171477157827006</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.149107454729295</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2933,10 +3058,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
@@ -2944,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
@@ -2952,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
@@ -2960,7 +3085,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5">
@@ -2968,7 +3093,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6">
@@ -2976,7 +3101,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
@@ -2984,7 +3109,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -2992,7 +3117,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -3000,7 +3125,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10">
@@ -3008,7 +3133,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11">
@@ -3016,7 +3141,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12">
@@ -3024,7 +3149,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
@@ -3032,7 +3157,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
@@ -3040,7 +3165,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
@@ -3048,7 +3173,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -3056,7 +3181,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -3064,7 +3189,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
@@ -3072,7 +3197,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
@@ -3080,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20">
@@ -3088,7 +3213,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21">
@@ -3096,7 +3221,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22">
@@ -3104,7 +3229,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23">
@@ -3112,7 +3237,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24">
@@ -3120,7 +3245,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25">
@@ -3128,7 +3253,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26">
@@ -3136,7 +3261,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27">
@@ -3144,7 +3269,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28">
@@ -3152,7 +3277,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29">
@@ -3160,7 +3285,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30">
@@ -3168,7 +3293,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31">
@@ -3176,7 +3301,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3309,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3317,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34">
@@ -3200,7 +3325,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35">
@@ -3208,7 +3333,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36">
@@ -3216,7 +3341,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37">
@@ -3224,7 +3349,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
